--- a/Task1/Task1.xlsx
+++ b/Task1/Task1.xlsx
@@ -14,120 +14,400 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>new sensor2:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>new sensors:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 1:
+position:
+[-3.91555187  4.16986315  4.25247024]
+orientation:
+[ 0.78218299  0.00587756 -0.57558059  0.23845799]
+</t>
   </si>
   <si>
     <t xml:space="preserve">Sensor 2:
 position:
-[-3.1613749   3.15848513 -2.8599158 ]
-orientation:
-[-0.35771942  0.60760525  0.47538585  0.5261758 ]
+[-4.01732923 -2.03187419  0.06846508]
+orientation:
+[-0.60652476  0.45556645 -0.54413816  0.35846979]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 3:
+position:
+[ 0.31034006  3.69037362 -4.95079461]
+orientation:
+[0.94151472 0.07127781 0.05842944 0.32412266]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 4:
+position:
+[4.43863968 1.89335187 1.40189426]
+orientation:
+[-0.71249097  0.14507609  0.67812309  0.10704494]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 5:
+position:
+[-4.06188093 -4.90507838  4.11784593]
+orientation:
+[ 0.35363994  0.27335907 -0.53573588  0.71638026]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 6:
+position:
+[1.18279679 0.38041933 2.62390359]
+orientation:
+[-0.26622767 -0.36351187  0.77049133 -0.4509158 ]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 7:
+position:
+[ 4.96189745 -2.65461748  4.40147401]
+orientation:
+[ 0.29215085  0.77262634 -0.25488977  0.50272023]
 </t>
   </si>
   <si>
     <t xml:space="preserve">Sensor 1:
 position:
-[-3.1613749   3.15848513 -2.8599158 ]
-orientation:
-[-0.11911665  0.09349324  0.76579035 -0.62500831]
+[ 0.13293445 -1.03438304  0.59661865]
+orientation:
+[-0.34272726  0.87544349  0.04444195  0.33787814]
 </t>
   </si>
   <si>
     <t xml:space="preserve">Sensor 2:
 position:
-[ 2.72367246 -2.0002398  -4.47347259]
-orientation:
-[-0.77400216 -0.53161562 -0.19663144  0.28220837]
+[4.2709776  1.75508258 0.20571938]
+orientation:
+[-0.2626703   0.6780291   0.21313819 -0.6525741 ]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 3:
+position:
+[ 0.76382383 -4.97821656 -3.22640603]
+orientation:
+[ 0.03041402 -0.76756995 -0.40310537  0.49741072]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 4:
+position:
+[-1.30305699 -2.85140987 -0.46933307]
+orientation:
+[0.6725334  0.63623875 0.0764726  0.37020403]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 5:
+position:
+[0.72191366 4.17275055 4.18605639]
+orientation:
+[-0.38495119  0.60282426  0.44294555  0.5405689 ]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 6:
+position:
+[-0.90169713  1.19186614 -1.60222821]
+orientation:
+[ 0.96288859 -0.13292527  0.17145156 -0.16056399]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 7:
+position:
+[3.31244639 3.54393493 4.01282403]
+orientation:
+[0.58252996 0.38533893 0.55303151 0.45423442]
 </t>
   </si>
   <si>
     <t xml:space="preserve">Sensor 1:
 position:
-[ 2.72367246 -2.0002398  -4.47347259]
-orientation:
-[ 0.34775072 -0.23686959 -0.51494843 -0.74685363]
+[4.78482382 3.24864978 3.60599973]
+orientation:
+[-0.34128446  0.8549859   0.29147854  0.25993132]
 </t>
   </si>
   <si>
     <t xml:space="preserve">Sensor 2:
 position:
-[ 3.41019999  2.00188398 -1.09537554]
-orientation:
-[ 0.29437278 -0.41919664 -0.81295417  0.27699161]
+[ 4.04519284 -0.30127546 -4.50398402]
+orientation:
+[ 0.47796097 -0.86970269 -0.05297815 -0.1111929 ]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 3:
+position:
+[ 3.41231718  1.95481285 -0.43801199]
+orientation:
+[ 0.62767981 -0.74267493 -0.09821435 -0.21167415]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 4:
+position:
+[ 1.39994616 -0.07886171  0.40889245]
+orientation:
+[ 0.54324606 -0.15097047 -0.81732782 -0.11860382]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 5:
+position:
+[-4.08464997 -1.77744348  0.20902528]
+orientation:
+[-0.45939656 -0.55381104 -0.57616531  0.38766179]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 6:
+position:
+[ 2.51867476 -1.67305372  2.28761897]
+orientation:
+[ 0.55986095 -0.42230343 -0.13581637 -0.6998353 ]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 7:
+position:
+[ 3.39351828 -2.76943548 -0.71668017]
+orientation:
+[-0.63182527 -0.33503935 -0.00808648  0.6989135 ]
 </t>
   </si>
   <si>
     <t xml:space="preserve">Sensor 1:
 position:
-[ 3.41019999  2.00188398 -1.09537554]
-orientation:
-[-0.40401564  0.27842862 -0.8712622   0.01229034]
+[ 3.9377026  -0.31365036  0.65959727]
+orientation:
+[-0.89498733 -0.17217686 -0.3854441  -0.14417228]
 </t>
   </si>
   <si>
     <t xml:space="preserve">Sensor 2:
 position:
-[-2.29087774  3.08327773 -0.17789466]
-orientation:
-[-0.48841432 -0.78585553 -0.23323904  0.29913556]
+[ 1.64914019  4.4988861  -4.09191295]
+orientation:
+[ 0.27650471 -0.88216858 -0.28089858 -0.25772026]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 3:
+position:
+[ 2.06914084 -1.08515895  1.3977506 ]
+orientation:
+[-0.87672362 -0.23743254 -0.32013082  0.26925403]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 4:
+position:
+[ 1.54397563  3.12928954 -3.65154451]
+orientation:
+[-0.50908454  0.56747613  0.54314145  0.35185385]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 5:
+position:
+[ 0.93773209 -4.04169792  3.44987379]
+orientation:
+[-0.35344597 -0.72238136 -0.57658765  0.14417976]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 6:
+position:
+[ 1.05916951  2.02758692 -3.51936915]
+orientation:
+[-0.56511294  0.45395055 -0.03359333  0.6880754 ]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 7:
+position:
+[ 0.04965264 -0.15605724 -4.21884077]
+orientation:
+[0.50935319 0.56771949 0.29326472 0.57641106]
 </t>
   </si>
   <si>
     <t xml:space="preserve">Sensor 1:
 position:
-[-2.29087774  3.08327773 -0.17789466]
-orientation:
-[ 0.13384029 -0.39075887 -0.72060869 -0.55688186]
+[ 4.60581616  0.32662048 -1.18976985]
+orientation:
+[-0.30201682 -0.13378429  0.14886958 -0.93205443]
 </t>
   </si>
   <si>
     <t xml:space="preserve">Sensor 2:
 position:
-[-2.95820402 -3.69319876 -2.41684031]
-orientation:
-[-0.53825731  0.67182875 -0.30644527  0.40622222]
+[0.81715096 2.21930081 2.79466831]
+orientation:
+[ 0.23201996  0.73493065  0.25292818 -0.58486838]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 3:
+position:
+[ 2.46291834  1.64085812 -0.30925773]
+orientation:
+[-0.25749237  0.74072018  0.52925927  0.32390726]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 4:
+position:
+[-1.53497352 -4.27103668 -1.3453691 ]
+orientation:
+[ 0.14055078 -0.53004993  0.73350804  0.40157005]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 5:
+position:
+[-3.63710866  4.47345489  1.61259661]
+orientation:
+[-0.53704632 -0.44546076  0.65095487  0.29900455]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 6:
+position:
+[-3.27130971  3.39757411 -0.47897764]
+orientation:
+[-0.4761582  -0.5861788   0.56765256 -0.3277779 ]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 7:
+position:
+[-2.31391091 -2.13776753  3.98348423]
+orientation:
+[-0.45493752 -0.73895419 -0.46414428 -0.17761939]
 </t>
   </si>
   <si>
     <t xml:space="preserve">Sensor 1:
 position:
-[-2.95820402 -3.69319876 -2.41684031]
-orientation:
-[ 0.09336291  0.6917442   0.25836514 -0.66784788]
+[ 1.17977436 -3.04821792 -4.82206637]
+orientation:
+[-0.00877196 -0.71547086  0.31647069 -0.62279274]
 </t>
   </si>
   <si>
     <t xml:space="preserve">Sensor 2:
 position:
-[-0.60975792  2.07090751  2.10417604]
-orientation:
-[ 0.32098802 -0.33421172 -0.76353691  0.44975617]
+[ 3.13836348 -3.04767522  0.07034519]
+orientation:
+[-0.60046361  0.37761134  0.46841365  0.52672743]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 3:
+position:
+[ 1.9492873  -1.32264984 -3.91862597]
+orientation:
+[-0.53704987 -0.16295063 -0.61360914 -0.55543528]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 4:
+position:
+[ 1.25240432 -2.57562772 -1.86534419]
+orientation:
+[-0.52402117  0.41724348  0.31366889 -0.67299444]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 5:
+position:
+[ 4.61706     1.29616221 -0.33289851]
+orientation:
+[ 0.65951288  0.67927628 -0.29532251  0.12810586]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 6:
+position:
+[-1.29128241 -4.09076748 -4.36946252]
+orientation:
+[-0.53348113  0.56194092  0.17748726  0.60672775]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 7:
+position:
+[-0.85276247 -3.22469899 -1.47212634]
+orientation:
+[-0.47278643 -0.65265519  0.23046369 -0.54534455]
 </t>
   </si>
   <si>
     <t xml:space="preserve">Sensor 1:
 position:
-[-0.60975792  2.07090751  2.10417604]
-orientation:
-[-0.54499844  0.30357875 -0.7762255  -0.09105283]
+[-1.01813636 -0.55607838 -3.20217182]
+orientation:
+[ 0.00882606  0.43208359 -0.86142309 -0.26678856]
 </t>
   </si>
   <si>
     <t xml:space="preserve">Sensor 2:
 position:
-[ 0.02500837  2.28887734 -3.25816801]
-orientation:
-[-0.88587547  0.41467797  0.20352237  0.04295891]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor 1:
-position:
-[ 0.02500837  2.28887734 -3.25816801]
-orientation:
-[ 0.59603202  0.14930956  0.43713366 -0.65678509]
+[ 4.3141104  -0.37207011 -0.23834223]
+orientation:
+[-0.46007601  0.33416757  0.77490922  0.27600326]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 3:
+position:
+[-3.88687467  3.90678061  3.72415859]
+orientation:
+[-0.51076714 -0.18368878  0.26968662  0.79538952]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 4:
+position:
+[ 3.99689542 -0.24830934 -1.64904443]
+orientation:
+[0.33208892 0.27237519 0.32702685 0.84177321]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 5:
+position:
+[ 4.22314085 -3.3116511  -2.04897996]
+orientation:
+[ 0.29157969 -0.2204276  -0.90188701  0.23020161]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 6:
+position:
+[ 4.28072998  1.44187045 -4.45982875]
+orientation:
+[-0.46800791 -0.62223115 -0.47394303 -0.41130889]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor 7:
+position:
+[-1.44916441 -1.09472161 -4.85541477]
+orientation:
+[ 0.38216019 -0.06221473  0.85369099  0.34827376]
 </t>
   </si>
 </sst>
@@ -460,85 +740,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
